--- a/team_1_project1_unit_testing_summary.xlsx
+++ b/team_1_project1_unit_testing_summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C54D9A3-228F-4FC3-B043-5C3273BD5535}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FB8382-D895-4434-8E4F-51B48124E768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39885" yWindow="3960" windowWidth="21090" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="1590" windowWidth="21090" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="50">
   <si>
     <t>Unit Test Method</t>
   </si>
@@ -138,15 +138,9 @@
     <t>Ren'e Zambrana</t>
   </si>
   <si>
-    <t>Group 1</t>
-  </si>
-  <si>
     <t>testCompareTo</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3/0</t>
-  </si>
-  <si>
     <t>testElementNameCompare</t>
   </si>
   <si>
@@ -159,9 +153,6 @@
     <t>testSymbolCompare</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1/2</t>
-  </si>
-  <si>
     <t>testCompoundNameComparator</t>
   </si>
   <si>
@@ -174,15 +165,9 @@
     <t>testComputeFormula</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1/1</t>
-  </si>
-  <si>
     <t>testComputeMolecularMass</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1/0</t>
-  </si>
-  <si>
     <t>testComputeHillFormula</t>
   </si>
   <si>
@@ -195,9 +180,6 @@
     <t>testCreateElementFromFormula</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0/1</t>
-  </si>
-  <si>
     <t>testGetCompounds_WithinMassRange</t>
   </si>
   <si>
@@ -228,13 +210,22 @@
     <t>Application code compares e1.symbol to e2.name</t>
   </si>
   <si>
-    <t>Unclear on how it should compute but it doesn't follow any naming convention. (Slaps them together as given)</t>
-  </si>
-  <si>
     <t>Puts Carbon and Hydrogen first as expected but does not order elements in any way after</t>
   </si>
   <si>
     <t>There is no equals method for elements so the elements are only equal if they share the same memory location.</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Unclear on how it should compute formula but it doesn't follow any naming convention. (Slaps them together as given)</t>
+  </si>
+  <si>
+    <t>Team 1</t>
   </si>
 </sst>
 </file>
@@ -332,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -366,7 +357,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -652,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -750,57 +744,57 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -816,11 +810,11 @@
       </c>
       <c r="B19" s="10">
         <f>COUNTIF(B13:B17,"=1")</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="13" t="e">
+        <v>4</v>
+      </c>
+      <c r="C19" s="13">
         <f>B19/$B$21</f>
-        <v>#DIV/0!</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -829,11 +823,11 @@
       </c>
       <c r="B20" s="10">
         <f>COUNTIF(B13:B17,"=0")</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="C20" s="13">
         <f>B20/$B$21</f>
-        <v>#DIV/0!</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -842,7 +836,7 @@
       </c>
       <c r="B21" s="10">
         <f>SUM(B19:B20)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C21" s="13"/>
     </row>
@@ -867,101 +861,101 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -976,12 +970,12 @@
         <v>5</v>
       </c>
       <c r="B36" s="10">
-        <f>COUNTIF(B25:B29,"=1")</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="13" t="e">
-        <f>B36/$B$21</f>
-        <v>#DIV/0!</v>
+        <f>COUNTIF(B25:B33,"=1")</f>
+        <v>7</v>
+      </c>
+      <c r="C36" s="13">
+        <f>B36/$B$38</f>
+        <v>0.77777777777777779</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -989,12 +983,12 @@
         <v>6</v>
       </c>
       <c r="B37" s="10">
-        <f>COUNTIF(B25:B29,"=0")</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="13" t="e">
-        <f>B37/$B$21</f>
-        <v>#DIV/0!</v>
+        <f>COUNTIF(B25:B33,"=0")</f>
+        <v>2</v>
+      </c>
+      <c r="C37" s="13">
+        <f>B37/$B$38</f>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1003,7 +997,7 @@
       </c>
       <c r="B38" s="10">
         <f>SUM(B36:B37)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C38" s="13"/>
     </row>
@@ -1028,46 +1022,46 @@
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="B43" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="C43" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1087,11 +1081,11 @@
       </c>
       <c r="B48" s="10">
         <f>COUNTIF(B42:B46,"=1")</f>
-        <v>0</v>
-      </c>
-      <c r="C48" s="13" t="e">
-        <f>B48/$B$21</f>
-        <v>#DIV/0!</v>
+        <v>3</v>
+      </c>
+      <c r="C48" s="13">
+        <f>B48/$B$50</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1100,11 +1094,11 @@
       </c>
       <c r="B49" s="10">
         <f>COUNTIF(B42:B46,"=0")</f>
-        <v>0</v>
-      </c>
-      <c r="C49" s="13" t="e">
-        <f>B49/$B$21</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="C49" s="13">
+        <f>B49/$B$50</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1113,7 +1107,7 @@
       </c>
       <c r="B50" s="10">
         <f>SUM(B48:B49)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C50" s="13"/>
     </row>
@@ -1138,57 +1132,57 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1204,11 +1198,11 @@
       </c>
       <c r="B60" s="10">
         <f>COUNTIF(B54:B58,"=1")</f>
-        <v>0</v>
-      </c>
-      <c r="C60" s="13" t="e">
-        <f>B60/$B$21</f>
-        <v>#DIV/0!</v>
+        <v>5</v>
+      </c>
+      <c r="C60" s="13">
+        <f>B60/$B$62</f>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1219,9 +1213,9 @@
         <f>COUNTIF(B54:B58,"=0")</f>
         <v>0</v>
       </c>
-      <c r="C61" s="13" t="e">
-        <f>B61/$B$21</f>
-        <v>#DIV/0!</v>
+      <c r="C61" s="13">
+        <f>B61/$B$62</f>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1230,7 +1224,7 @@
       </c>
       <c r="B62" s="10">
         <f>SUM(B60:B61)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C62" s="13"/>
     </row>
